--- a/biology/Zoologie/Buffle_d'Afrique/Buffle_d'Afrique.xlsx
+++ b/biology/Zoologie/Buffle_d'Afrique/Buffle_d'Afrique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Buffle_d%27Afrique</t>
+          <t>Buffle_d'Afrique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Syncerus caffer
-Le Buffle d'Afrique, buffle noir des savanes ou grand buffle noir des savanes (Syncerus caffer[2]) est une espèce de bovidés de la sous-tribu des Bubalina.
-Sa taille peut atteindre 1,7 m en hauteur et 3,4 m en longueur, avec des cornes de 1,5 m d'envergure et un poids de 900 kg. C'est la seule espèce du genre Syncerus. Il fait partie, avec le léopard d'Afrique, l'éléphant d'Afrique, le rhinocéros noir et le lion d'Afrique, du groupe dit « big five » des 5 mammifères autrefois craints et respectés par les chasseurs africains[3].
+Le Buffle d'Afrique, buffle noir des savanes ou grand buffle noir des savanes (Syncerus caffer) est une espèce de bovidés de la sous-tribu des Bubalina.
+Sa taille peut atteindre 1,7 m en hauteur et 3,4 m en longueur, avec des cornes de 1,5 m d'envergure et un poids de 900 kg. C'est la seule espèce du genre Syncerus. Il fait partie, avec le léopard d'Afrique, l'éléphant d'Afrique, le rhinocéros noir et le lion d'Afrique, du groupe dit « big five » des 5 mammifères autrefois craints et respectés par les chasseurs africains.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Buffle_d%27Afrique</t>
+          <t>Buffle_d'Afrique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les buffles vivent en groupe dans la savane ou dans les zones boisées. Ils sont caractérisés par de redoutables cornes et de grandes oreilles. Ils pèsent en moyenne 700 kilogrammes et s'alimentent d'herbes, de graminées et de quelques feuilles.
 La gestation de la femelle dure 11 mois, elle met au monde un petit de 40 kilogrammes.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Buffle_d%27Afrique</t>
+          <t>Buffle_d'Afrique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,10 +560,12 @@
           <t>Maladies</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La peste bovine a décimé les populations de buffles d'Afrique à la fin du XIXe siècle[4]. Au début du XXIe siècle, la tuberculose bovine constitue un sujet majeur d'inquiétude pour les populations de buffles en Afrique australe[4].
-Le buffle constitue un réservoir du virus de la fièvre aphteuse[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La peste bovine a décimé les populations de buffles d'Afrique à la fin du XIXe siècle. Au début du XXIe siècle, la tuberculose bovine constitue un sujet majeur d'inquiétude pour les populations de buffles en Afrique australe.
+Le buffle constitue un réservoir du virus de la fièvre aphteuse.
 </t>
         </is>
       </c>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Buffle_d%27Afrique</t>
+          <t>Buffle_d'Afrique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,14 +594,16 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>La génétique a permis de déterminer des sous-espèces[5] :
-Syncerus caffer caffer[6] — Buffle du Cap ou buffle de Cafrérie
-Syncerus caffer aequinoctialis[7] (Blyth, 1866) — Buffle équinoxial
-Syncerus caffer brachyceros[8] (Gray, 1837)
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La génétique a permis de déterminer des sous-espèces :
+Syncerus caffer caffer — Buffle du Cap ou buffle de Cafrérie
+Syncerus caffer aequinoctialis (Blyth, 1866) — Buffle équinoxial
+Syncerus caffer brachyceros (Gray, 1837)
 Syncerus caffer matthewsi (Lydekker, 1904)
-Syncerus caffer nanus[9] (Boddaert, 1785) — Buffle nain ou buffle de forêt</t>
+Syncerus caffer nanus (Boddaert, 1785) — Buffle nain ou buffle de forêt</t>
         </is>
       </c>
     </row>
